--- a/KOMPEGE/block 26/dz 1/26_9756.xlsx
+++ b/KOMPEGE/block 26/dz 1/26_9756.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 26\dz 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E56E07B-13DC-4A2D-97AD-401996A7B022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6120B-99F7-4E7E-B7A1-BA5DADABBE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8130" yWindow="9360" windowWidth="33825" windowHeight="18780"/>
+    <workbookView xWindow="12180" yWindow="1470" windowWidth="33825" windowHeight="18255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26_9756" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'26_9756'!$A$1:$D$993</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O993"/>
   <sheetViews>
@@ -16753,7 +16764,7 @@
     <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="993" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D993">
+  <autoFilter ref="A1:D993" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="greaterThanOrEqual" val="991"/>
